--- a/matlab/initial_conditions/create_initial_conditions/Defaults_2012_HN.xlsx
+++ b/matlab/initial_conditions/create_initial_conditions/Defaults_2012_HN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\initial_conditions\create_initial_conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9631DBF9-6AD7-42BC-9E97-12A666F9B018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1FA624-8CBF-4114-8BA2-BA78B281D356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="1155" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean_Initial_Condition" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Zone 3</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>TEMP</t>
+  </si>
+  <si>
+    <t>ECLOI</t>
+  </si>
+  <si>
+    <t>ENT</t>
+  </si>
+  <si>
+    <t>FC</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:I11"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1686,6 +1695,93 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>12</v>
+      </c>
+      <c r="H24" s="4">
+        <v>14</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>35</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/matlab/initial_conditions/create_initial_conditions/Defaults_2012_HN.xlsx
+++ b/matlab/initial_conditions/create_initial_conditions/Defaults_2012_HN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\initial_conditions\create_initial_conditions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\Hawkesbury\matlab\initial_conditions\create_initial_conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1FA624-8CBF-4114-8BA2-BA78B281D356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B2F73-1F8F-46CD-AB87-CE8E0D4F8516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1155" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38600" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean_Initial_Condition" sheetId="1" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="A2" sqref="A2:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
